--- a/testData/adactinData.xlsx
+++ b/testData/adactinData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14952" windowHeight="8004" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14952" windowHeight="8004"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
     <t>aishwarya</t>
   </si>
   <si>
-    <t>Aishwarya004</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
@@ -122,6 +119,9 @@
   </si>
   <si>
     <t>March</t>
+  </si>
+  <si>
+    <t>Aishwarya008</t>
   </si>
 </sst>
 </file>
@@ -450,7 +450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -466,7 +466,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -489,54 +489,54 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -548,7 +548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -562,48 +562,48 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" t="s">
         <v>29</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>30</v>
-      </c>
-      <c r="F2" t="s">
-        <v>31</v>
       </c>
       <c r="G2" s="3">
         <v>2028</v>
